--- a/redmine/10_Redmine共通情報_画面・テーブル一覧.xlsx
+++ b/redmine/10_Redmine共通情報_画面・テーブル一覧.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="作業メモ" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Redmine情報" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="画面一覧" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="テーブル一覧" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="SQL文" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="319">
   <si>
     <t xml:space="preserve">シート</t>
   </si>
@@ -301,25 +302,7 @@
     <t xml:space="preserve">カスタムフィールド » 新しいカスタムフィールド</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://localhost/custom_fields/new?tab</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=</t>
-    </r>
+    <t xml:space="preserve">http://localhost/custom_fields/new?tab=</t>
   </si>
   <si>
     <t xml:space="preserve">カスタムフィールド » チケット » 新しいカスタムフィールド</t>
@@ -950,14 +933,160 @@
   </si>
   <si>
     <t xml:space="preserve">id、tracker_id、old_status_id、new_status_id、role_id、assignee、author、type、field_name、rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">環境
+依存</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主テーブル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">処理内容・用途</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MySQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">×</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use redmine_production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBを切り替える。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show tables;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テーブル一覧を取得する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT users.id, users.login, users.firstname, users.lastname, users.admin, users.status, users.last_login_on, users.created_on, users.updated_on, users.type FROM users;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ユーザの一覧を取得する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM users WHERE auth_source_id IS NULL;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内部認証のユーザ一覧を取得する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM users WHERE auth_source_id IS NULL AND updated_on &lt; (NOW() -INTERVAL 1 YEAR);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内部認証の1年以上ログインしていないユーザ一覧を取得する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT users.id, users.login, users.firstname, users.lastname, users.admin, users.status, users.last_login_on, users.created_on, users.updated_on, users.type FROM users WHERE users.status = 1 AND users.updated_on &lt; (NOW() - INTERVAL 1 YEAR);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1年以上ログインしていないユーザで有効なユーザの一覧を取得する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT id, name, is_public, parent_id, created_on, updated_on, identifier, status FROM projects;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プロジェクトの一覧を取得する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT id, name, is_public, parent_id, created_on, updated_on, identifier, status FROM projects WHERE is_public=1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公開になっているプロジェクトの一覧を取得する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT id, name, is_public, parent_id, created_on, updated_on, identifier, status FROM projects WHERE status=1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">現在有効なプロジェクトの一覧を取得する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT id,name,is_public,parent_id,created_on,updated_on,identifier,status FROM projects WHERE updated_on &lt; (NOW() - INTERVAL 1 YEAR) AND status=1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1年以上前に作成していて、1年以上更新していないで有効なプロジェクトの一覧を取得する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT wikis.id, wikis.project_id, projects.name, wikis.start_page, wikis.status FROM wikis LEFT JOIN projects ON projects.id = wikis.project_id;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wikiが存在するプロジェクトの一覧を取得する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT repositories.id, repositories.project_id, projects.name, repositories.url, repositories.type, repositories.created_on FROM repositories LEFT JOIN projects ON repositories.project_id=projects.id;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リポジトリの一覧を取得する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT members.id, members.user_id, users.login, users.firstname, users.lastname, users.status, members.project_id, projects.name, members.created_on FROM members LEFT JOIN projects ON projects.id = members.project_id LEFT JOIN users ON users.id = members.user_id;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プロジェクト毎のユーザ一覧を取得する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT issues.id, issues.tracker_id, trackers.name, issues.project_id, projects.name, issues.updated_on FROM issues LEFT JOIN trackers ON trackers.id = issues.tracker_id LEFT JOIN projects ON issues.project_id = projects.id WHERE issues.closed_on IS NULL;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">完了済みになっていないチケットの一覧を取得する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE issues SET closed_on = NOW(), status_id = '2' WHERE id = '2';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チケットをクローズする。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT wiki_pages.id, wiki_pages.title, wiki_pages.created_on, wikis.start_page, projects.name, projects.is_public FROM wiki_pages LEFT JOIN wikis ON wikis.id = wiki_pages.wiki_id LEFT JOIN projects ON projects.id= wikis.project_id;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wikiページの一覧を取得する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT wiki_pages.id, wiki_pages.title, wiki_pages.created_on, wikis.start_page, projects.name, projects.is_public, wiki_contents.text FROM wiki_pages LEFT JOIN wikis ON wikis.id = wiki_pages.wiki_id LEFT JOIN projects ON projects.id= wikis.project_id LEFT JOIN wiki_contents ON wiki_contents.page_id = wiki_pages.id;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select * from email_addresses;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メールアドレスの一覧を取得する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select enabled_modules.id, enabled_modules.project_id, projects.name, enabled_modules.name from enabled_modules left join projects ON projects.id = enabled_modules.project_id;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有効になっているモジュールの一覧を取得する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select enabled_modules.name, COUNT(enabled_modules.project_id) from enabled_modules group by enabled_modules.name;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モジュールの利用PJ数を取得する。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1017,12 +1146,24 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1065,10 +1206,16 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1100,6 +1247,30 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1110,6 +1281,66 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="見出し" xfId="20"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF8000"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1124,9 +1355,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>537120</xdr:colOff>
+      <xdr:colOff>536040</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1140,12 +1371,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="170640"/>
-          <a:ext cx="6609960" cy="3927600"/>
+          <a:ext cx="6589800" cy="3926520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1156,17 +1387,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.34"/>
@@ -1181,58 +1412,58 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1248,30 +1479,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"Page &amp;P</oddFooter>
@@ -1281,17 +1512,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.68"/>
@@ -1314,1007 +1545,1007 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
+      <c r="A68" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2340,7 +2571,7 @@
     <hyperlink ref="D19" r:id="rId18" display="http://localhost/workflows"/>
     <hyperlink ref="D20" r:id="rId19" display="http://localhost/workflows/edit"/>
     <hyperlink ref="D21" r:id="rId20" display="http://localhost/custom_fields"/>
-    <hyperlink ref="D22" r:id="rId21" display="http://localhost/custom_fields/new?tab"/>
+    <hyperlink ref="D22" r:id="rId21" display="http://localhost/custom_fields/new?tab="/>
     <hyperlink ref="D23" r:id="rId22" display="http://localhost/custom_fields/new?utf8=%E2%9C%93&amp;type=IssueCustomField"/>
     <hyperlink ref="D24" r:id="rId23" display="http://localhost/custom_fields/new?utf8=%E2%9C%93&amp;type=TimeEntryCustomField"/>
     <hyperlink ref="D25" r:id="rId24" display="http://localhost/custom_fields/new?utf8=%E2%9C%93&amp;type=ProjectCustomField"/>
@@ -2390,7 +2621,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"Page &amp;P</oddFooter>
@@ -2399,17 +2630,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.8"/>
@@ -2432,752 +2663,1224 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="54.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D49" s="3"/>
+      <c r="D49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D50" s="3"/>
+      <c r="D50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D52" s="3"/>
+      <c r="D52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D53" s="3"/>
+      <c r="D53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D54" s="3"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D55" s="3"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D56" s="3"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D57" s="3"/>
+      <c r="D57" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.91015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="45.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38.12"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="80.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="80.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="80.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="93.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/redmine/10_Redmine共通情報_画面・テーブル一覧.xlsx
+++ b/redmine/10_Redmine共通情報_画面・テーブル一覧.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="328">
   <si>
     <t xml:space="preserve">シート</t>
   </si>
@@ -596,6 +596,9 @@
     <t xml:space="preserve">id、container_id、container_type、filename、disk_filename、filesize、content_type、digest、downloads、author_id、created_on、description、disk_directory</t>
   </si>
   <si>
+    <t xml:space="preserve">アップロードしたファイルを管理</t>
+  </si>
+  <si>
     <t xml:space="preserve">auth_sources</t>
   </si>
   <si>
@@ -911,12 +914,18 @@
     <t xml:space="preserve">id、page_id、author_id、text、comments、updated_on、version</t>
   </si>
   <si>
+    <t xml:space="preserve">wikiページのコンテンツ</t>
+  </si>
+  <si>
     <t xml:space="preserve">wiki_pages</t>
   </si>
   <si>
     <t xml:space="preserve">id、wiki_id、title、created_on、protected、parent_id</t>
   </si>
   <si>
+    <t xml:space="preserve">wikiページの一覧</t>
+  </si>
+  <si>
     <t xml:space="preserve">wiki_redirects</t>
   </si>
   <si>
@@ -929,10 +938,16 @@
     <t xml:space="preserve">id、project_id、start_page、status</t>
   </si>
   <si>
+    <t xml:space="preserve">wikiのトップページの一覧</t>
+  </si>
+  <si>
     <t xml:space="preserve">workflows</t>
   </si>
   <si>
     <t xml:space="preserve">id、tracker_id、old_status_id、new_status_id、role_id、assignee、author、type、field_name、rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ワークフローの一覧</t>
   </si>
   <si>
     <t xml:space="preserve">DBMS</t>
@@ -1078,6 +1093,18 @@
   </si>
   <si>
     <t xml:space="preserve">モジュールの利用PJ数を取得する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select * from attachments where container_type = 'Project';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fileタグのファイルの一覧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select * from attachments where container_type = 'Issue';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チケットに添付されたファイルの一覧</t>
   </si>
 </sst>
 </file>
@@ -1355,9 +1382,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>536040</xdr:colOff>
+      <xdr:colOff>535680</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1371,7 +1398,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="170640"/>
-          <a:ext cx="6589800" cy="3926520"/>
+          <a:ext cx="6583320" cy="3926160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1397,7 +1424,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.34"/>
@@ -1489,7 +1516,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.09"/>
   </cols>
@@ -1522,7 +1549,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.68"/>
@@ -2636,11 +2663,11 @@
   </sheetPr>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.8"/>
@@ -2688,7 +2715,9 @@
       <c r="C3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
@@ -2696,10 +2725,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -2709,10 +2738,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -2722,10 +2751,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -2735,10 +2764,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -2748,10 +2777,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -2761,10 +2790,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -2774,10 +2803,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -2787,10 +2816,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -2800,13 +2829,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2815,13 +2844,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,13 +2859,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2845,13 +2874,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2860,10 +2889,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -2873,10 +2902,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -2886,10 +2915,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D18" s="4"/>
     </row>
@@ -2899,10 +2928,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D19" s="4"/>
     </row>
@@ -2912,10 +2941,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -2925,13 +2954,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2940,10 +2969,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -2953,10 +2982,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D23" s="4"/>
     </row>
@@ -2966,10 +2995,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D24" s="4"/>
     </row>
@@ -2979,10 +3008,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D25" s="4"/>
     </row>
@@ -2992,10 +3021,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -3005,10 +3034,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D27" s="4"/>
     </row>
@@ -3018,10 +3047,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D28" s="4"/>
     </row>
@@ -3031,10 +3060,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D29" s="4"/>
     </row>
@@ -3044,10 +3073,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D30" s="4"/>
     </row>
@@ -3057,10 +3086,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D31" s="4"/>
     </row>
@@ -3070,10 +3099,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D32" s="4"/>
     </row>
@@ -3083,10 +3112,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D33" s="4"/>
     </row>
@@ -3096,10 +3125,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D34" s="4"/>
     </row>
@@ -3109,10 +3138,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D35" s="4"/>
     </row>
@@ -3122,10 +3151,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D36" s="4"/>
     </row>
@@ -3135,10 +3164,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D37" s="4"/>
     </row>
@@ -3148,10 +3177,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D38" s="4"/>
     </row>
@@ -3161,10 +3190,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D39" s="4"/>
     </row>
@@ -3174,10 +3203,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D40" s="4"/>
     </row>
@@ -3187,10 +3216,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D41" s="4"/>
     </row>
@@ -3200,10 +3229,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D42" s="4"/>
     </row>
@@ -3213,10 +3242,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D43" s="4"/>
     </row>
@@ -3226,10 +3255,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D44" s="4"/>
     </row>
@@ -3239,10 +3268,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D45" s="4"/>
     </row>
@@ -3252,10 +3281,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D46" s="4"/>
     </row>
@@ -3265,10 +3294,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D47" s="4"/>
     </row>
@@ -3278,10 +3307,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D48" s="4"/>
     </row>
@@ -3291,10 +3320,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D49" s="4"/>
     </row>
@@ -3304,10 +3333,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D50" s="4"/>
     </row>
@@ -3317,10 +3346,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D51" s="4"/>
     </row>
@@ -3330,10 +3359,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D52" s="4"/>
     </row>
@@ -3343,12 +3372,14 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="D53" s="4"/>
+        <v>263</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="n">
@@ -3356,12 +3387,14 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="D54" s="4"/>
+        <v>266</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="n">
@@ -3369,10 +3402,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D55" s="4"/>
     </row>
@@ -3382,12 +3415,14 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D56" s="4"/>
+        <v>271</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="n">
@@ -3395,12 +3430,14 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D57" s="4"/>
+        <v>274</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>275</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3418,13 +3455,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.91015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.46"/>
@@ -3439,19 +3476,19 @@
         <v>13</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3460,19 +3497,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3481,19 +3518,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3502,19 +3539,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,19 +3560,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,19 +3581,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="80.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3565,19 +3602,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,19 +3623,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3607,19 +3644,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3628,19 +3665,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3649,19 +3686,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,19 +3707,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3691,19 +3728,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="80.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3712,19 +3749,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="80.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3733,19 +3770,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3754,19 +3791,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3775,19 +3812,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="93.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3796,19 +3833,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3817,19 +3854,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3838,19 +3875,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3859,19 +3896,61 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>318</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
